--- a/data/testcase_demo.xlsx
+++ b/data/testcase_demo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>case_id</t>
   </si>
@@ -42,9 +42,6 @@
     <t>expected</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>actual</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>{ "status_code": 200}</t>
-  </si>
-  <si>
-    <t>通过</t>
   </si>
   <si>
     <t>type=0</t>
@@ -279,13 +273,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -620,41 +611,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.77734375" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.77734375" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -663,147 +653,132 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="E2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="3" spans="1:11" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="9"/>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
+    <row r="4" spans="1:11" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="9"/>
+      <c r="E4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="193.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    <row r="5" spans="1:11" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/data/testcase_demo.xlsx
+++ b/data/testcase_demo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>case_id</t>
   </si>
@@ -80,6 +80,62 @@
   </si>
   <si>
     <t>POST</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>{ "status_code": 200,"json":["自动化测试标题"]}</t>
+  </si>
+  <si>
+    <t>["article.title"]</t>
+  </si>
+  <si>
+    <t>[{"article_id_0":"article.id"}]</t>
+  </si>
+  <si>
+    <t>save_ticket</t>
+  </si>
+  <si>
+    <t>新增工单-工单模板id不存在</t>
+  </si>
+  <si>
+    <t>form-data</t>
+  </si>
+  <si>
+    <t>{ "status_code": 400,"json":["工单模板不存在"]}</t>
+  </si>
+  <si>
+    <t>["error.message"]</t>
+  </si>
+  <si>
+    <t>update_exten</t>
+  </si>
+  <si>
+    <t>修改话机</t>
+  </si>
+  <si>
+    <t>{
+    "status_code": 200
+}</t>
+  </si>
+  <si>
+    <t>chat_message_to_client</t>
+  </si>
+  <si>
+    <t>访客发送图片消息</t>
+  </si>
+  <si>
+    <t>{
+    "sessionId": (None, "#session_id#"),
+    "messageType": (None, 2),
+    "fileUrl":(None, "http://image.woshipm.com/wp-files/2021/06/QoMcxaYAGkdmrTYJ1vy9.jpg")
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>form-data-sms</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -107,24 +163,17 @@
         }
     ]
 }</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>{ "status_code": 200,"json":["自动化测试标题"]}</t>
-  </si>
-  <si>
-    <t>["article.title"]</t>
-  </si>
-  <si>
-    <t>[{"article_id_0":"article.id"}]</t>
-  </si>
-  <si>
-    <t>save_ticket</t>
-  </si>
-  <si>
-    <t>新增工单-工单模板id不存在</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+            "extenNumber": (None, "#daily_phone#"),
+            "password": (None, "123456"),
+            "areaCode": (None, "025"),
+            "type": (None, 2),
+            "allow": (None, 6)
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -141,35 +190,7 @@
             "form": #workflow_form#,
             "dault": True
         }))}</t>
-  </si>
-  <si>
-    <t>form-data</t>
-  </si>
-  <si>
-    <t>{ "status_code": 400,"json":["工单模板不存在"]}</t>
-  </si>
-  <si>
-    <t>["error.message"]</t>
-  </si>
-  <si>
-    <t>update_exten</t>
-  </si>
-  <si>
-    <t>修改话机</t>
-  </si>
-  <si>
-    <t>{
-            "extenNumber": (None, "#daily_phone#"),
-            "password": (None, "123456"),
-            "areaCode": (None, "025"),
-            "type": (None, 2),
-            "allow": (None, 6)
-}</t>
-  </si>
-  <si>
-    <t>{
-    "status_code": 200
-}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -273,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -335,6 +356,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -624,7 +654,7 @@
     <col min="3" max="3" width="22.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="37.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="33.5546875" style="10" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46.77734375" customWidth="1"/>
@@ -707,19 +737,19 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="8"/>
@@ -729,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="20"/>
@@ -758,27 +788,54 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="106.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/data/testcase_demo.xlsx
+++ b/data/testcase_demo.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="test_article" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>case_id</t>
   </si>
@@ -118,24 +118,6 @@
     <t>{
     "status_code": 200
 }</t>
-  </si>
-  <si>
-    <t>chat_message_to_client</t>
-  </si>
-  <si>
-    <t>访客发送图片消息</t>
-  </si>
-  <si>
-    <t>{
-    "sessionId": (None, "#session_id#"),
-    "messageType": (None, 2),
-    "fileUrl":(None, "http://image.woshipm.com/wp-files/2021/06/QoMcxaYAGkdmrTYJ1vy9.jpg")
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>form-data-sms</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -190,6 +172,26 @@
             "form": #workflow_form#,
             "dault": True
         }))}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sms_send</t>
+  </si>
+  <si>
+    <t>发送短信成功</t>
+  </si>
+  <si>
+    <t>{
+   "cno":"#cno#",   
+   "tel":"#daily_sms_phone#",
+   "content":"您的余额不足，请充值"
+}</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>files</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -357,14 +359,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -654,14 +650,15 @@
     <col min="3" max="3" width="22.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="37.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.5546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.77734375" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.5546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.77734375" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,26 +674,29 @@
       <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -712,18 +712,19 @@
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="8"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -737,24 +738,25 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -768,22 +770,23 @@
         <v>19</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="8"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -797,49 +800,51 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="106.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/testcase_demo.xlsx
+++ b/data/testcase_demo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>case_id</t>
   </si>
@@ -192,6 +192,23 @@
   </si>
   <si>
     <t>files</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ssert</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -296,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -361,6 +378,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -653,12 +673,13 @@
     <col min="6" max="6" width="4.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="33.5546875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.77734375" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.77734375" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,20 +704,23 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -717,14 +741,15 @@
       <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="8"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -747,16 +772,17 @@
       <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="8"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -779,14 +805,15 @@
       <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="8"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -809,12 +836,13 @@
       <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="8"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -837,10 +865,11 @@
       <c r="H6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
